--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3632172.354641811</v>
+        <v>3624999.065931526</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7986413.798022805</v>
+        <v>7986413.798022804</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>164.9963059042464</v>
       </c>
       <c r="F2" t="n">
-        <v>235.8951920783246</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -740,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>9.223763435107132</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>83.99615299836258</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>29.71014592494659</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.63983515595499</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464233</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>365.0973896302111</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464233</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385214</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409303</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.0396308464234</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -995,7 +995,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281874</v>
+        <v>34.85740518264907</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129666</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>154.8742713976375</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>102.7540511849764</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.56010598547481</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322648</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>352.0572348711266</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>166.0588731052221</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>49.43466667695273</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.05736909830189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>140.8066899520706</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>24.02501718175313</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1738878213213</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>14.73664328357051</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>108.4650682136787</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>130.74161248265</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>155.4299165252756</v>
       </c>
       <c r="X31" t="n">
-        <v>114.55445484527</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.425271278902</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>160.8722505808159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.496242627249363</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>177.7059714321714</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>127.2629096606665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>235.556406673431</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633775</v>
+        <v>112.2536425510784</v>
       </c>
       <c r="H46" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>166.6971395948245</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="C2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="D2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="E2" t="n">
-        <v>275.6855924150208</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>529.5587134138201</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="V2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="W2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="X2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.6855924150208</v>
+        <v>418.1353718951007</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.40945385892292</v>
+        <v>851.5661188011087</v>
       </c>
       <c r="C3" t="n">
-        <v>31.40945385892292</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="D3" t="n">
-        <v>31.40945385892292</v>
+        <v>528.1786798587304</v>
       </c>
       <c r="E3" t="n">
-        <v>31.40945385892292</v>
+        <v>368.941224853275</v>
       </c>
       <c r="F3" t="n">
-        <v>31.40945385892292</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>28.39914141318535</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459458</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4439,22 +4439,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>1019.781455821177</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>1019.781455821177</v>
       </c>
       <c r="V3" t="n">
-        <v>869.4739465776793</v>
+        <v>1019.781455821177</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494777</v>
+        <v>1019.781455821177</v>
       </c>
       <c r="X3" t="n">
-        <v>407.3850896439449</v>
+        <v>1019.781455821177</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.624790878991</v>
+        <v>1019.781455821177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.158523385693</v>
+        <v>51.6886042247056</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.158523385693</v>
+        <v>51.6886042247056</v>
       </c>
       <c r="D5" t="n">
-        <v>1488.158523385693</v>
+        <v>51.6886042247056</v>
       </c>
       <c r="E5" t="n">
-        <v>1112.360916470114</v>
+        <v>51.6886042247056</v>
       </c>
       <c r="F5" t="n">
-        <v>743.5756744193957</v>
+        <v>44.74310347550212</v>
       </c>
       <c r="G5" t="n">
-        <v>367.7780675038165</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380445</v>
+        <v>57.64391735380462</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456888</v>
+        <v>220.174733845689</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039992</v>
+        <v>474.0852112039994</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494183</v>
+        <v>773.2160860494187</v>
       </c>
       <c r="N5" t="n">
         <v>1062.555213635725</v>
@@ -4588,31 +4588,31 @@
         <v>1447.523776935885</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385693</v>
+        <v>1366.762647488197</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385693</v>
+        <v>1166.509506436752</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385693</v>
+        <v>1166.509506436752</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385693</v>
+        <v>1166.509506436752</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385693</v>
+        <v>835.4466190931818</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385693</v>
+        <v>482.6779638230676</v>
       </c>
       <c r="X5" t="n">
-        <v>1488.158523385693</v>
+        <v>482.6779638230676</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.158523385693</v>
+        <v>106.8803569074884</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>668.8183407161666</v>
+        <v>943.5098490005403</v>
       </c>
       <c r="C6" t="n">
-        <v>668.8183407161666</v>
+        <v>769.0568197194133</v>
       </c>
       <c r="D6" t="n">
-        <v>519.8839310549154</v>
+        <v>620.122410058162</v>
       </c>
       <c r="E6" t="n">
-        <v>360.6464760494599</v>
+        <v>460.8849550527065</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>314.3503970795915</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>175.8749912032737</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>64.9726706522079</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="K6" t="n">
-        <v>195.544616476027</v>
+        <v>195.5446164760271</v>
       </c>
       <c r="L6" t="n">
-        <v>479.8626256221638</v>
+        <v>195.5446164760271</v>
       </c>
       <c r="M6" t="n">
-        <v>848.1818601601228</v>
+        <v>479.7277836524403</v>
       </c>
       <c r="N6" t="n">
-        <v>1216.501094698082</v>
+        <v>848.0470181903995</v>
       </c>
       <c r="O6" t="n">
-        <v>1216.501094698082</v>
+        <v>1156.361899562719</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706689</v>
+        <v>1386.80870570669</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707616</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107484</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458532</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="U6" t="n">
-        <v>1033.017297458532</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="V6" t="n">
-        <v>1033.017297458532</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="W6" t="n">
-        <v>1033.017297458532</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="X6" t="n">
-        <v>876.5786394811205</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="Y6" t="n">
-        <v>668.8183407161666</v>
+        <v>1111.725186020608</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.102139158307</v>
+        <v>133.5551413616294</v>
       </c>
       <c r="C7" t="n">
-        <v>246.102139158307</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="D7" t="n">
-        <v>95.98549974597125</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="E7" t="n">
-        <v>95.98549974597125</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="F7" t="n">
-        <v>95.98549974597125</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="G7" t="n">
-        <v>95.98549974597125</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="H7" t="n">
-        <v>95.98549974597125</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="I7" t="n">
-        <v>95.98549974597125</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888187</v>
+        <v>32.09990175888189</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611325</v>
+        <v>90.61654790611328</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236696</v>
+        <v>162.7032697236697</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400031</v>
+        <v>238.5105468400032</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057959</v>
+        <v>292.514541505796</v>
       </c>
       <c r="P7" t="n">
         <v>315.2036061918691</v>
       </c>
       <c r="Q7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="R7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="S7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="T7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="U7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="V7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="W7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="X7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.102139158307</v>
+        <v>315.2036061918691</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.972039273389</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2529.412855558402</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2310.778188530465</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2310.778188530465</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1979.715301186894</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.6044479702274</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>648.7780583156595</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>648.7780583156595</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>359.6044479702274</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>359.6044479702274</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>359.6044479702274</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>359.6044479702274</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.6044479702274</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5035,7 +5035,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,16 +5044,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>524.5778132641556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765184</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>786.0822064765184</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>786.0822064765184</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.2262780943953</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.400123145958</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C16" t="n">
-        <v>816.4639402180511</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D16" t="n">
-        <v>816.4639402180511</v>
+        <v>383.437385413378</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>383.437385413378</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>383.437385413378</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.048587976198</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L18" t="n">
-        <v>953.6472828615138</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1141.200876391121</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1141.200876391121</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.03077229167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1484.03077229167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.613602254709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1908.095276920732</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2187.63534213943</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2392.657822921639</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1078.360482071968</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>789.2318432855265</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>534.5473550796396</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>245.130185042679</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>245.130185042679</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1366.854035726943</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1366.854035726943</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1077.436865689982</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>1077.436865689982</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>856.644286546452</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.5250474102529</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>394.5250474102529</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5250474102529</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.446367141521</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>731.0291971045608</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="X31" t="n">
-        <v>615.317626553783</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y31" t="n">
-        <v>394.5250474102529</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,13 +6697,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6785,19 +6785,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1474.244279367092</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1474.244279367092</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1250.458864156598</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1250.458864156598</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1250.458864156598</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1250.458864156598</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.458864156598</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,10 +6940,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496976</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2446.115379232724</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.419047748997</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1047.001877712037</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>819.0123268140193</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
         <v>265.3924131404652</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1319.415289313285</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1030.286650526843</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>775.602162320956</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>154.3878371814099</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>303.4575213834697</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>337.3000764349712</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>337.3000764349712</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>337.3000764349712</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>337.3000764349712</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>337.3000764349712</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>786.0822064765186</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X43" t="n">
-        <v>558.0926555785013</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y43" t="n">
-        <v>337.3000764349712</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="44">
@@ -7630,19 +7630,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,16 +7675,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
@@ -7733,7 +7733,7 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
         <v>1247.466478653857</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>881.7531914306744</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="C46" t="n">
-        <v>712.8170085027676</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="D46" t="n">
-        <v>562.700369090432</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="E46" t="n">
-        <v>562.700369090432</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925217</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1330.535321472222</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1330.535321472222</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V46" t="n">
-        <v>1330.535321472222</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W46" t="n">
-        <v>1330.535321472222</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X46" t="n">
-        <v>1102.545770574204</v>
+        <v>392.2530740188876</v>
       </c>
       <c r="Y46" t="n">
-        <v>881.7531914306744</v>
+        <v>392.2530740188876</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>386.2161139338934</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>218.3140732255139</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>83.65043707503827</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835741</v>
+        <v>365.11742665575</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470465</v>
+        <v>437.6152809470466</v>
       </c>
       <c r="O6" t="n">
-        <v>82.43314617337623</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>257.7161068870452</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L18" t="n">
-        <v>32.78140656352406</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.2351313103793</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>19.14409596997069</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>15.83804904622873</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>38.8600230194989</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.5272842537929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>5.627272694498544</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>142.4685512816245</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,10 +23712,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>7.9637555025067</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>271.5007091150068</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>113.0824928447105</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>155.4957399159273</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>131.0930818113154</v>
       </c>
       <c r="X31" t="n">
-        <v>111.1552005437672</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>85.5390811248908</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>91.26539274301206</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>172.3357375546879</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>43.84158962621783</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>21.65091870686965</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>54.2399259122992</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>54.85042146356463</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680842.638394378</v>
+        <v>680842.6383943779</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680842.638394378</v>
+        <v>680842.6383943779</v>
       </c>
     </row>
     <row r="13">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
@@ -26325,37 +26325,37 @@
         <v>723403.7605147617</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.760514761</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="M2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.151770385</v>
+        <v>106137.1517703852</v>
       </c>
       <c r="D3" t="n">
         <v>316711.9424252097</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>5.760133111228545e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113904</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313455</v>
+        <v>24677.24609313448</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817118</v>
+        <v>76496.15793817109</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.546140993013978e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,22 +26426,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773398</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.483517734</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.483517734</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
@@ -26453,13 +26453,13 @@
         <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
+        <v>36432.48351773399</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773407</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485723</v>
+        <v>58810.42201485725</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273454.6034848384</v>
+        <v>273454.6034848387</v>
       </c>
       <c r="C6" t="n">
         <v>316134.107721482</v>
       </c>
       <c r="D6" t="n">
-        <v>176543.9297787151</v>
+        <v>176543.9297787152</v>
       </c>
       <c r="E6" t="n">
-        <v>69823.91457141518</v>
+        <v>68849.32331169338</v>
       </c>
       <c r="F6" t="n">
-        <v>594983.9510483111</v>
+        <v>594009.3597885889</v>
       </c>
       <c r="G6" t="n">
-        <v>594983.9510483105</v>
+        <v>594009.3597885889</v>
       </c>
       <c r="H6" t="n">
-        <v>594983.951048311</v>
+        <v>594009.3597885889</v>
       </c>
       <c r="I6" t="n">
-        <v>594983.9510483105</v>
+        <v>594009.3597885888</v>
       </c>
       <c r="J6" t="n">
-        <v>522729.2561771717</v>
+        <v>521754.6649174496</v>
       </c>
       <c r="K6" t="n">
-        <v>570306.7049551761</v>
+        <v>569332.1136954547</v>
       </c>
       <c r="L6" t="n">
-        <v>518487.7931101396</v>
+        <v>517513.2018504177</v>
       </c>
       <c r="M6" t="n">
-        <v>460182.9358144737</v>
+        <v>459208.3445547518</v>
       </c>
       <c r="N6" t="n">
-        <v>594983.9510483107</v>
+        <v>594009.3597885891</v>
       </c>
       <c r="O6" t="n">
-        <v>594983.9510483111</v>
+        <v>594009.3597885889</v>
       </c>
       <c r="P6" t="n">
-        <v>594983.951048311</v>
+        <v>594009.3597885893</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.199739324074848e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.56020455939</v>
+        <v>117.5602045593901</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464233</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26916,16 +26916,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.932676241267472e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026469</v>
+        <v>82.53894384026478</v>
       </c>
       <c r="D3" t="n">
         <v>260.1834596576966</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406777</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081323</v>
+        <v>302.2476419081322</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023553</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.883117144068</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081326</v>
+        <v>302.2476419081322</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406777</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081323</v>
+        <v>302.2476419081322</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.9340641680153</v>
       </c>
       <c r="F2" t="n">
-        <v>170.9808536633868</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.0444249786322</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>115.8649479738093</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>150.1218342569907</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.45345940421689</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.0940065075256</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225838502</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>41.77865611150031</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128709</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
         <v>192.2558301280908</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385214</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,16 +27675,16 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.19830780963019</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.83311818016966</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129666</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>50.89871380584</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>64.49276991365143</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>12.81111165810984</v>
+        <v>78.37121764358463</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322648</v>
       </c>
       <c r="R7" t="n">
         <v>167.761378725518</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>13.21565689988097</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.356839703749358</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>162.7108722730662</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.200166389035682e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,40 +31278,40 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246832</v>
+        <v>0.4726038374246834</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025538</v>
+        <v>4.84005405002554</v>
       </c>
       <c r="I5" t="n">
         <v>18.22005944231512</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662324</v>
+        <v>40.11165994662326</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481009</v>
+        <v>60.11698038481011</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439575</v>
+        <v>74.58043007439578</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819696</v>
+        <v>82.98509856819699</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127985</v>
+        <v>84.32788422127987</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288814</v>
+        <v>79.62842981288819</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646628</v>
+        <v>67.96102257646629</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869479</v>
+        <v>51.03589764869481</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262828</v>
+        <v>29.68720080262829</v>
       </c>
       <c r="S5" t="n">
         <v>10.76945994531498</v>
@@ -31320,7 +31320,7 @@
         <v>2.068823298326552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397465</v>
+        <v>0.03780830699397466</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,43 +31357,43 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560465</v>
+        <v>0.2528653456560466</v>
       </c>
       <c r="H6" t="n">
         <v>2.442146890941292</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596338</v>
+        <v>8.706109488596342</v>
       </c>
       <c r="J6" t="n">
-        <v>23.8902298718285</v>
+        <v>23.89022987182851</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078361</v>
+        <v>40.83220803078363</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483588</v>
+        <v>54.90394270483591</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486756</v>
+        <v>64.07031148486759</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827101</v>
+        <v>65.76606198271011</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106821</v>
+        <v>60.16309827106824</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496909</v>
+        <v>48.28619043496911</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128762</v>
+        <v>32.27803956128763</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134647</v>
+        <v>15.69983260134648</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707702</v>
+        <v>4.696862889707704</v>
       </c>
       <c r="T6" t="n">
         <v>1.01922479235924</v>
@@ -31439,46 +31439,46 @@
         <v>0.2119938115005394</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886615</v>
+        <v>1.884817705886616</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761677</v>
+        <v>6.375232076761679</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308813</v>
+        <v>14.98796247308814</v>
       </c>
       <c r="K7" t="n">
         <v>24.6298264634263</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072565</v>
+        <v>31.51769812072566</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094364</v>
+        <v>33.23099356094365</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898711</v>
+        <v>32.44083480898712</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736716</v>
+        <v>29.96436164736717</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275613</v>
+        <v>25.63968789275614</v>
       </c>
       <c r="Q7" t="n">
         <v>17.7515908884679</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651522</v>
+        <v>9.532012651651526</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513944</v>
+        <v>3.694473969513945</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477589</v>
+        <v>0.9057917400477592</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912034</v>
+        <v>0.01156329880912035</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>263.1686671037984</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>93.64045453795988</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201072</v>
+        <v>28.16237059201074</v>
       </c>
       <c r="K5" t="n">
         <v>164.1725419109943</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548589</v>
+        <v>256.475229654859</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337567</v>
+        <v>302.1523988337568</v>
       </c>
       <c r="N5" t="n">
         <v>292.2617450366731</v>
@@ -34956,7 +34956,7 @@
         <v>158.5267349926794</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414999</v>
+        <v>41.04519843415</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>167.4560060690032</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284209</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464233</v>
+        <v>287.0537042185993</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464233</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>311.4291731033533</v>
       </c>
       <c r="P6" t="n">
-        <v>172.027889907684</v>
+        <v>232.774551660576</v>
       </c>
       <c r="Q6" t="n">
         <v>102.3735532111152</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543446</v>
+        <v>2.360334637543453</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104179</v>
+        <v>59.1077233810418</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278422</v>
+        <v>72.81487052278423</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882157</v>
+        <v>76.57300718821571</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140683</v>
+        <v>54.54948956140684</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764962</v>
+        <v>22.91824715764963</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L18" t="n">
-        <v>282.0391115195484</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.2481640954534</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37153,22 +37153,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>268.401800925995</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>179.2506324680955</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>57.74822800113539</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,16 +37870,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>349.2844000699651</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
